--- a/words.xlsx
+++ b/words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>expose</t>
   </si>
@@ -397,6 +397,48 @@
   </si>
   <si>
     <t>[tuˈtɔriəl]辅导材料</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t>[rɪˈstrɪkʃən]</t>
+  </si>
+  <si>
+    <t>n.限制，限定; 拘束，束缚; 管制; </t>
+  </si>
+  <si>
+    <t>placement</t>
+  </si>
+  <si>
+    <t>n.安置，放置; 实习工作，实习课; 定位，[足]定位球; </t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>[dʒəˈnɛrɪk]</t>
+  </si>
+  <si>
+    <t>adj.类的，属性的; 一般的; 不受商标保护的; [生]属的，类的; </t>
+  </si>
+  <si>
+    <t>delimit</t>
+  </si>
+  <si>
+    <t>[dɪˈlɪmɪt]</t>
+  </si>
+  <si>
+    <t>vt.限制，定…的界; </t>
+  </si>
+  <si>
+    <t>compliant</t>
+  </si>
+  <si>
+    <t>[kəmˈplaɪənt]</t>
+  </si>
+  <si>
+    <t>adj.遵从的; 依从的; （与系列规则相）符合的; 一致的; </t>
   </si>
 </sst>
 </file>
@@ -762,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,10 +1500,16 @@
       <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -1478,10 +1526,14 @@
       <c r="R56" s="2"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -1498,10 +1550,16 @@
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -1518,10 +1576,16 @@
       <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -1538,10 +1602,16 @@
       <c r="R59" s="2"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>expose</t>
   </si>
   <si>
-    <t>揭露 揭发 使暴露</t>
-  </si>
-  <si>
     <t>shorten</t>
   </si>
   <si>
@@ -39,15 +36,9 @@
     <t>equivalent</t>
   </si>
   <si>
-    <t>相等的 等效的 等价的</t>
-  </si>
-  <si>
     <t>numerous</t>
   </si>
   <si>
-    <t>很多的 数量庞大的</t>
-  </si>
-  <si>
     <t>aid</t>
   </si>
   <si>
@@ -228,15 +219,9 @@
     <t>signify</t>
   </si>
   <si>
-    <t>预示 象征</t>
-  </si>
-  <si>
     <t>blackout</t>
   </si>
   <si>
-    <t>停电 灯火管制</t>
-  </si>
-  <si>
     <t>tutorial</t>
   </si>
   <si>
@@ -261,15 +246,6 @@
     <t>snippet</t>
   </si>
   <si>
-    <t>小片 片段 摘录</t>
-  </si>
-  <si>
-    <t>critiria</t>
-  </si>
-  <si>
-    <t>标准 准则</t>
-  </si>
-  <si>
     <t>consecutive</t>
   </si>
   <si>
@@ -438,7 +414,202 @@
     <t>[kəmˈplaɪənt]</t>
   </si>
   <si>
-    <t>adj.遵从的; 依从的; （与系列规则相）符合的; 一致的; </t>
+    <t>adj.遵从的; 依从的; （与系列规则相）符合的; 一致的;  兼容的</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>[kəmˈpleɪnt]</t>
+  </si>
+  <si>
+    <t>n.抱怨，控诉; 委屈，怨言</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>[kraɪˈtɪrɪə]标准 准则</t>
+  </si>
+  <si>
+    <t>[ˈsnɪpɪt]小片 片段 摘录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈblækˌaʊt]   n.灯火管制; 灯火熄灭; 暂时失去知觉; </t>
+  </si>
+  <si>
+    <t>['sɪɡnɪfaɪ]  vt预示 象征</t>
+  </si>
+  <si>
+    <t>[ɪkˈspoz]揭露 揭发 使暴露</t>
+  </si>
+  <si>
+    <t>[ɪˈkwɪvələnt] adj相等的 等效的 等价的</t>
+  </si>
+  <si>
+    <t>[ˈnju:mərəs] adj.很多的 数量庞大的</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>[ˈfiɡə]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.数字; 算术; 图解; 轮廓;  vt.计算在内; 估计; 推测; 认为; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure out </t>
+  </si>
+  <si>
+    <t>找出，计算出，解决; 弄明白; 合计; </t>
+  </si>
+  <si>
+    <t>wizard</t>
+  </si>
+  <si>
+    <t>[ˈwɪzəd]</t>
+  </si>
+  <si>
+    <t>n.（尤指故事中的）男巫; 术士; &lt;褒&gt;有特殊才干的人，奇才; 向导</t>
+  </si>
+  <si>
+    <t>alliance</t>
+  </si>
+  <si>
+    <t>consortium</t>
+  </si>
+  <si>
+    <t>n 联盟 联合 联姻</t>
+  </si>
+  <si>
+    <t>n 财团 联合 合伙</t>
+  </si>
+  <si>
+    <t>get around(round)</t>
+  </si>
+  <si>
+    <t>到处走走；逃避；说服；有办法应付</t>
+  </si>
+  <si>
+    <t>perspective</t>
+  </si>
+  <si>
+    <t>n 观点</t>
+  </si>
+  <si>
+    <t>vt促进、提升、推销、发扬</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>['skedʒuːl]</t>
+  </si>
+  <si>
+    <t>n.时刻表，进度表; 清单，明细表; 预定计划; 目录; </t>
+  </si>
+  <si>
+    <t>leverage</t>
+  </si>
+  <si>
+    <t>['li:vərɪdʒ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.杠杆作用; 优势，力量; 影响力; 举债经营; v.举债经营; 为…融资; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">be associated with </t>
+  </si>
+  <si>
+    <t>与什么关联</t>
+  </si>
+  <si>
+    <t>cornerstone</t>
+  </si>
+  <si>
+    <t>[ˈkɔrnɚˌston]</t>
+  </si>
+  <si>
+    <t>n.奠基石; 基础; 最重要部份; 柱石; </t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>[ˈmoʃən]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.运动; 手势; 动机，意向; 请求; vt.打手势; 向某人点头或摇头示意; 打手势要求[指示]; </t>
+  </si>
+  <si>
+    <t>drawback</t>
+  </si>
+  <si>
+    <t>[ˈdrɔ:bæk]</t>
+  </si>
+  <si>
+    <t>n.缺点，劣势; 退税; </t>
+  </si>
+  <si>
+    <t>defect</t>
+  </si>
+  <si>
+    <t>['di:fekt]</t>
+  </si>
+  <si>
+    <t>n.瑕疵，毛病; 欠缺，缺点; </t>
+  </si>
+  <si>
+    <t>merit</t>
+  </si>
+  <si>
+    <t>[ˈmɛrɪt]</t>
+  </si>
+  <si>
+    <t>n.价值，优点; [宗教]（行善得到的）功德; 功绩，功勋; 荣誉; </t>
+  </si>
+  <si>
+    <t>demerit</t>
+  </si>
+  <si>
+    <t>[dɪˈmɛrɪt]</t>
+  </si>
+  <si>
+    <t>n.&lt;正&gt;缺点，过失，短处; </t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>[ˈhɪndɚ]</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.阻碍，妨碍; 成为阻碍; </t>
+  </si>
+  <si>
+    <t>hinder sb from doing sth</t>
+  </si>
+  <si>
+    <t>reimbursement</t>
+  </si>
+  <si>
+    <t>[ˌriɪmˈbə:smənt]</t>
+  </si>
+  <si>
+    <t>n.退还，偿还; 补偿; 赔偿; 报销</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>[ɪˈvæljuˌet]</t>
+  </si>
+  <si>
+    <t>vt.评价; 求…的值（或数）; 对…评价; [数学、逻辑学]求…的数值; </t>
   </si>
 </sst>
 </file>
@@ -802,15 +973,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
@@ -821,348 +992,348 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -1172,14 +1343,14 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1189,24 +1360,24 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1225,12 +1396,12 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1249,12 +1420,12 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1273,14 +1444,14 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1299,14 +1470,14 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1325,12 +1496,12 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1349,14 +1520,14 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1375,14 +1546,14 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1401,12 +1572,12 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1425,12 +1596,12 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1449,14 +1620,14 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -1475,14 +1646,14 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1501,14 +1672,14 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1527,12 +1698,12 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1551,14 +1722,14 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1577,14 +1748,14 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1603,14 +1774,14 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1628,10 +1799,16 @@
       <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1667,12 +1844,227 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B84" r:id="rId2" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B85" r:id="rId3" display="http://fanyi.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/words.xlsx
+++ b/words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>expose</t>
   </si>
@@ -610,13 +610,190 @@
   </si>
   <si>
     <t>vt.评价; 求…的值（或数）; 对…评价; [数学、逻辑学]求…的数值; </t>
+  </si>
+  <si>
+    <t>syllabus</t>
+  </si>
+  <si>
+    <t>[ˈsɪləbəs]</t>
+  </si>
+  <si>
+    <t>n.教学大纲，课程提纲; （讲义等的）摘要，提纲; 课程表; [法]（判例前的）判决要旨; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">punctuality </t>
+  </si>
+  <si>
+    <t>n.严守时间; 正确，规矩; </t>
+  </si>
+  <si>
+    <t>[ˌpʌŋktʃʊˈælətɪ]</t>
+  </si>
+  <si>
+    <t>cumulative</t>
+  </si>
+  <si>
+    <t>['kju:mjələtɪv]</t>
+  </si>
+  <si>
+    <t>adj.累积的; 渐增的; 追加的; （判刑等）加重的;</t>
+  </si>
+  <si>
+    <t>participate</t>
+  </si>
+  <si>
+    <t>[pɑrˈtɪsəˌpet]</t>
+  </si>
+  <si>
+    <t>vi.参加某事; 分享某事; vt.得到或接受某部分东西;  参与</t>
+  </si>
+  <si>
+    <t>pronunciation</t>
+  </si>
+  <si>
+    <t>[prəˌnʌnsiˈeɪʃn]</t>
+  </si>
+  <si>
+    <t>n.发音; 读法; 发音方法; 发音方式; </t>
+  </si>
+  <si>
+    <t>intonation</t>
+  </si>
+  <si>
+    <t>[ˌɪntəˈneɪʃn]</t>
+  </si>
+  <si>
+    <t>n.语调，声调; </t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>[ˌpreznˈteɪʃn]</t>
+  </si>
+  <si>
+    <t>n.陈述; 报告; 介绍; 赠送; </t>
+  </si>
+  <si>
+    <t>composure</t>
+  </si>
+  <si>
+    <t>[kəmˈpəʊʒə(r)]</t>
+  </si>
+  <si>
+    <t>n.镇静，沉着; 头脑镇定或沉着的状态; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocabulary </t>
+  </si>
+  <si>
+    <t>[və'kæbjələrɪ]</t>
+  </si>
+  <si>
+    <t>n.（某一语言的）词汇; （尤指外语教科书中附有释义的）词汇表; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforce </t>
+  </si>
+  <si>
+    <t>[ˌri:ɪnˈfɔ:s]</t>
+  </si>
+  <si>
+    <t>vt.加固; 使更结实; 加强; 充实; </t>
+  </si>
+  <si>
+    <t>retention</t>
+  </si>
+  <si>
+    <t>[rɪˈtenʃn]</t>
+  </si>
+  <si>
+    <t>n.保留; 记忆力，保持力; 滞留，扣留; 闭尿; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">peer </t>
+  </si>
+  <si>
+    <t>[pɪə(r)]</t>
+  </si>
+  <si>
+    <t>n.同辈，同等的人; 贵族; 同伴，伙伴</t>
+  </si>
+  <si>
+    <t>proof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.证明; 校样; 检验; （酒的）标准酒精度; vt.给（织物）做防护处理，使防水（或防火等）; 印…的校样; </t>
+  </si>
+  <si>
+    <t>proof-reading</t>
+  </si>
+  <si>
+    <t>校对</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>['sʌmərɪ]</t>
+  </si>
+  <si>
+    <t>n.摘要，概要; 总结，一览; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparatory </t>
+  </si>
+  <si>
+    <t>[prɪˈpærəˌtɔri, -ˌtori, -ˈpɛr-, ˈprɛpərə-]</t>
+  </si>
+  <si>
+    <t>adj.预备的，准备的，筹备的; 初步的; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neat </t>
+  </si>
+  <si>
+    <t>[ni:t]</t>
+  </si>
+  <si>
+    <t>adj.整洁的，干净的; 灵巧的; 匀整的; 未搀水的; </t>
+  </si>
+  <si>
+    <t>deduct</t>
+  </si>
+  <si>
+    <t>[dɪˈdʌkt]</t>
+  </si>
+  <si>
+    <t>vt.扣除，减去; 演绎; </t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>[ kənˈdʌkt]</t>
+  </si>
+  <si>
+    <t>vt.组织; 安排; 实施; 执行; </t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>[ˈveəriəs]</t>
+  </si>
+  <si>
+    <t>adj.各种各样的; 多方面的; 许多的; 各个的，个别的; </t>
+  </si>
+  <si>
+    <t>conduct表做时一般常译为处理；管理；进行   ----perform可以专门表示做；进行；施行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +821,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -666,11 +849,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,14 +2244,233 @@
         <v>197</v>
       </c>
     </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>241</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>253</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B84" r:id="rId2" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B85" r:id="rId3" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B91" r:id="rId4" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B92" r:id="rId5" display="http://fanyi.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/words.xlsx
+++ b/words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>expose</t>
   </si>
@@ -787,13 +787,331 @@
   </si>
   <si>
     <t>conduct表做时一般常译为处理；管理；进行   ----perform可以专门表示做；进行；施行</t>
+  </si>
+  <si>
+    <t>mitt</t>
+  </si>
+  <si>
+    <t>[mɪt]</t>
+  </si>
+  <si>
+    <t>n.露指手套，棒球手套，拳击手套; </t>
+  </si>
+  <si>
+    <t>baseball</t>
+  </si>
+  <si>
+    <t>n.棒球; [体]棒球运动; </t>
+  </si>
+  <si>
+    <t>glove</t>
+  </si>
+  <si>
+    <t>[ɡlʌv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.手套; 棒球手套; 拳击手套;  vt.给…戴手套; 用…的手套; </t>
+  </si>
+  <si>
+    <t>in a pickle</t>
+  </si>
+  <si>
+    <t>[ˈpɪkəl]</t>
+  </si>
+  <si>
+    <t>处于困境;</t>
+  </si>
+  <si>
+    <t>diamond-shaped</t>
+  </si>
+  <si>
+    <t>['daɪməndˌʃeɪpt]</t>
+  </si>
+  <si>
+    <t>adj.钻石形的，菱形的; </t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>[ʃeɪp]</t>
+  </si>
+  <si>
+    <t>n.形状; 模型; 状态; 身材; </t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>[ʃɑrp]</t>
+  </si>
+  <si>
+    <t>adj.敏锐的; 锋利的; 狡猾的，聪明的; 尖锐的; </t>
+  </si>
+  <si>
+    <t>['sɜ:kɪt]</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>n.电路，线路; 巡回; 唤醒，环形道; 〔电〕电流; </t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>[dɪ'lemə]</t>
+  </si>
+  <si>
+    <t>n.窘境，困境; 进退两难; </t>
+  </si>
+  <si>
+    <t>lousy</t>
+  </si>
+  <si>
+    <t>['laʊzɪ]</t>
+  </si>
+  <si>
+    <t>adj.讨厌的; 污秽的; 多虱的; 不清洁的;</t>
+  </si>
+  <si>
+    <t>remarkably</t>
+  </si>
+  <si>
+    <t>[rɪ'mɑ:kəblɪ]</t>
+  </si>
+  <si>
+    <t>adv.引人注目地，明显地，非常地; </t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>[rɪ'mɑ:k]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.注意，观察; 话语; 评论，谈论，;   vt.&amp; vi.评论; 觉察; </t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.评论; 注释; 意见; 说明;  vt.&amp; vi.评论，谈论; </t>
+  </si>
+  <si>
+    <t>decline</t>
+  </si>
+  <si>
+    <t>[dɪ'klaɪn]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.下降; （力量、健康、品格、权力、价值等的）衰退; 下倾; （人、生命等的）衰退期;  vt.谢绝，婉拒; </t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>[ˈdi:snt]</t>
+  </si>
+  <si>
+    <t>adj.正派的; 得体的; （服装等）相称的，合宜的; 相当好的; </t>
+  </si>
+  <si>
+    <t>underhanded</t>
+  </si>
+  <si>
+    <t>[ˌʌndə'hændɪd]</t>
+  </si>
+  <si>
+    <t>adj.&lt;英&gt;秘密的; 狡诈的; 偷偷摸摸的; 人手不足的; </t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>['ledʒənd]</t>
+  </si>
+  <si>
+    <t>n.传说; 传奇人物; 铭文; 图例; </t>
+  </si>
+  <si>
+    <t>legends</t>
+  </si>
+  <si>
+    <t>['ledʒəndz]</t>
+  </si>
+  <si>
+    <t>n.传说( legend的名词复数 ); 民间传说; （地图或书中图表的）图例; 传奇人物; </t>
+  </si>
+  <si>
+    <t>well known</t>
+  </si>
+  <si>
+    <t>众所周知的; 出名的; </t>
+  </si>
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t>[ə'kwaɪə(r)]</t>
+  </si>
+  <si>
+    <t>vt.获得，取得; 学到; </t>
+  </si>
+  <si>
+    <t>fiddle with</t>
+  </si>
+  <si>
+    <t>[ˈfidl wið]</t>
+  </si>
+  <si>
+    <t>v.乱动; 摆弄; 拨弄; 搬弄;</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>[mes]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.混乱; 食堂; 肮脏; 困境; vt.弄脏; 搞砸; 给…供膳; vi.把事情弄糟; 制造脏乱; </t>
+  </si>
+  <si>
+    <t>manipulate</t>
+  </si>
+  <si>
+    <t>[mə'nɪpjʊleɪt]</t>
+  </si>
+  <si>
+    <t>vt.操作，处理; 巧妙地控制; 操纵; [医] 推拿，调整; </t>
+  </si>
+  <si>
+    <t>unconscious</t>
+  </si>
+  <si>
+    <t>[ʌnˈkɒnʃəs]</t>
+  </si>
+  <si>
+    <t>adj.失去知觉的，无意识的; 无意的，不自觉的; 不知道的; 不受意识控制的; </t>
+  </si>
+  <si>
+    <t>lost cause</t>
+  </si>
+  <si>
+    <t>n.注定要失败的努力（或行动）; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">under the gun </t>
+  </si>
+  <si>
+    <t>under great pressure to perform</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>[speə(r)]</t>
+  </si>
+  <si>
+    <t>adj.多余的，剩下的（钱等），空闲的（时间等） vt.节省，俭省; 不用，抽出，省掉; 宽恕，饶（命）</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>[rəʊ'teɪt]</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.（使某物）旋转; 使转动; 使轮流，轮换; 交替; </t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>[ɪks'tʃeɪndʒ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.交换; 交易; 交易所; 兑换（率）; vt.交换，互换; 兑换; 交换，调换; </t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>[ˈregjələ(r)]</t>
+  </si>
+  <si>
+    <t>adj.有规律的; 规则，整齐的; 不变的; 合格的; </t>
+  </si>
+  <si>
+    <t>revolve</t>
+  </si>
+  <si>
+    <t>[rɪ'vɒlv]</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.使旋转; 反复考虑; 使循环; </t>
+  </si>
+  <si>
+    <t>chuck</t>
+  </si>
+  <si>
+    <t>[tʃʌk]</t>
+  </si>
+  <si>
+    <t>vt.[机械工程]用卡盘夹紧; （口语）抛出，扔出;</t>
+  </si>
+  <si>
+    <t>call it a day</t>
+  </si>
+  <si>
+    <t>收工</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>[bæn]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt.禁止，下令禁止; 剥夺权利; [古]诅咒; n.禁止，禁令; 谴责; 诅咒，诅骂; 革出教门; </t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>v.取缔( ban的现在分词 ); 查封; 禁止; 禁止某人做某事（或去某处等）; </t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>ɪk'sklu:d]</t>
+  </si>
+  <si>
+    <t>vt.排除，不包括; 排斥; 驱除，赶出; </t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>[ɪnˈklu:d]</t>
+  </si>
+  <si>
+    <t>vt.包括; 包含; 计入; 包住; </t>
+  </si>
+  <si>
+    <t>firework</t>
+  </si>
+  <si>
+    <t>n.（常pl.）烟火，烟花; （热情，怒气等的）迸发; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +1145,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -849,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -857,6 +1181,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,6 +2791,400 @@
         <v>255</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>260</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>278</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>300</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>286</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>289</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>294</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>297</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>323</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>326</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>330</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>336</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>345</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>348</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>350</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>353</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>358</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>361</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" display="http://fanyi.baidu.com/"/>
@@ -2468,9 +3192,12 @@
     <hyperlink ref="B85" r:id="rId3" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B91" r:id="rId4" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B92" r:id="rId5" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B124" r:id="rId6" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B143" r:id="rId7" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B144" r:id="rId8" display="http://fanyi.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>expose</t>
   </si>
@@ -1105,6 +1105,21 @@
   </si>
   <si>
     <t>n.（常pl.）烟火，烟花; （热情，怒气等的）迸发; </t>
+  </si>
+  <si>
+    <t>LOGIN CREDENTIALS</t>
+  </si>
+  <si>
+    <t>Leap Institute: http://leap.talentlms.com/</t>
+  </si>
+  <si>
+    <t>Username: bli@Objectivasoftware.com</t>
+  </si>
+  <si>
+    <t>Password: bli1</t>
+  </si>
+  <si>
+    <t>Please contact Dana Reynolds (dreynolds@crownpartners.com) if you have any questions or concerns and check out our Confluence space: https://confluence.crownpartners.com/display/LEAP/Leap+Institute+Home</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
@@ -3203,13 +3218,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://leap.talentlms.com/"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:bli@Objectivasoftware.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <si>
     <t>expose</t>
   </si>
@@ -1120,13 +1120,331 @@
   </si>
   <si>
     <t>Please contact Dana Reynolds (dreynolds@crownpartners.com) if you have any questions or concerns and check out our Confluence space: https://confluence.crownpartners.com/display/LEAP/Leap+Institute+Home</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>['mændətərɪ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.强制的; 命令的; 受委托的; n.受托者; </t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>[ˈæsˌɛt]</t>
+  </si>
+  <si>
+    <t>n.资产，财产; 有价值的人或物; 有用的东西; 优点; </t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>[ˈɑ:bitrəri]</t>
+  </si>
+  <si>
+    <t>adj.随意的，任性的，随心所欲的; 主观的，武断的; 霸道的，专制的，专横的，独断独行的; 乱; </t>
+  </si>
+  <si>
+    <t>overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.重叠部分; 覆盖物，涂盖层; [数]交叠，相交; vt.重叠; 与…部分相同; </t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>[kənˈsʌltənt]</t>
+  </si>
+  <si>
+    <t>n.（受人咨询的）顾问; 会诊医生，（顾问）医生; 求教者，（与人）商议者，征求意见者，查阅者，咨询者; </t>
+  </si>
+  <si>
+    <t>actively</t>
+  </si>
+  <si>
+    <t>adv.活跃地，积极地; </t>
+  </si>
+  <si>
+    <t>'æktɪvlɪ</t>
+  </si>
+  <si>
+    <t>accreditation</t>
+  </si>
+  <si>
+    <t>[əˌkredɪ'teɪʃn]</t>
+  </si>
+  <si>
+    <t>n.委派，信赖，鉴定合格; 认可</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>[səʊl]</t>
+  </si>
+  <si>
+    <t>adj.单独的; 惟一的; 专有的，独占的</t>
+  </si>
+  <si>
+    <t>multiple-choice</t>
+  </si>
+  <si>
+    <t>[ˈmʌltəpəlˈtʃɔɪs]</t>
+  </si>
+  <si>
+    <t>adj.有多项选择的; </t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>n.概观; 总的看法; 回顾，复习; </t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.试映，预演; 预告片; 象征，预示; vt.预映; 预先观看; 概述; 扼要介绍; </t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.复习; 回顾; （报刊的）评论; [法]复审; vt.检验; 复查; 复习; 评论; </t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>[rendʒ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.范围; 射程; 类别; （山脉，房屋等的）排列; vt.排列; （按一定位置或顺序）排序; 把…分类; 徘徊; </t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>['sɜ:veɪ]</t>
+  </si>
+  <si>
+    <t>n.调查（表），调查所，测量，测量部，测量图; 概观，检查，鉴定书; 环顾; </t>
+  </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>[ˌsɜ:təfɪˈkeɪʃən]</t>
+  </si>
+  <si>
+    <t>n.证明，鉴定，证书; 认证</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>[ə'tʃi:v]</t>
+  </si>
+  <si>
+    <t>vt.取得; 获得; 实现; 成功; </t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>[kəm'pli:t]</t>
+  </si>
+  <si>
+    <t>vt.完成，使完满; 完成或结束; 填写（表格）</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>[ˈkændɪdət]</t>
+  </si>
+  <si>
+    <t>n.报考者; 申请求职者; 攻读学位者; 最后命运或结局如何已显然可见者; </t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>[dɪˈlɪvɚ]</t>
+  </si>
+  <si>
+    <t>vt.发表; 递送; 交付; 使分娩; </t>
+  </si>
+  <si>
+    <t>readiness</t>
+  </si>
+  <si>
+    <t>[ˈredinəs]</t>
+  </si>
+  <si>
+    <t>n.准备就绪; 愿意，乐意; </t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>[ræmp]</t>
+  </si>
+  <si>
+    <t>n.土堤斜坡; 斜道; 敲诈; （装车或上下飞机的）活动梯; </t>
+  </si>
+  <si>
+    <t>Troubleshoot </t>
+  </si>
+  <si>
+    <t>['trʌblʃu:t]</t>
+  </si>
+  <si>
+    <t>故障排除</t>
+  </si>
+  <si>
+    <t>strategic</t>
+  </si>
+  <si>
+    <t>[strəˈti:dʒɪk]</t>
+  </si>
+  <si>
+    <t>adj.战略（上）的; 战略性的; 有战略意义的; 至关重要的; </t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>['strætədʒɪ]</t>
+  </si>
+  <si>
+    <t>n.策略，战略; 战略学; </t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>['klʌstə(r)]</t>
+  </si>
+  <si>
+    <t>n.丛; 簇，串; 群; [语言]辅音群; 集群</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>['swɪtsərlənd]</t>
+  </si>
+  <si>
+    <t>n.瑞士; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructure </t>
+  </si>
+  <si>
+    <t>['ɪnfrəstrʌktʃə(r)]</t>
+  </si>
+  <si>
+    <t>n.基础设施; 基础建设; </t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>[ˌkɑmplɪˈkeʃən]</t>
+  </si>
+  <si>
+    <t>n.[医]并发症; 错杂，纠纷; 混乱，精神错乱; </t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>adj.都市的; 具有城市或城市生活特点的; 市内; </t>
+  </si>
+  <si>
+    <t>接某人</t>
+  </si>
+  <si>
+    <t>pick up sb/pick sb up</t>
+  </si>
+  <si>
+    <t>http://legal.firefox.news.cn/14/0919/09/W40IAOUB6N1HT52K.html</t>
+  </si>
+  <si>
+    <t>formulate</t>
+  </si>
+  <si>
+    <t>vt.构想出，规划; 确切地阐述; 用公式表示; </t>
+  </si>
+  <si>
+    <t>methodology</t>
+  </si>
+  <si>
+    <t>[ˌmɛθəˈdɑlədʒi]</t>
+  </si>
+  <si>
+    <t>n.（从事某一活动的）一套方法; 方法学; 方法论; </t>
+  </si>
+  <si>
+    <t>['fɔ:mjʊleɪt]</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>[kənˈstrʌkt]</t>
+  </si>
+  <si>
+    <t>vt.修建，建造; 构成; 创立; [数]作图; </t>
+  </si>
+  <si>
+    <t>vt.利用，使用; </t>
+  </si>
+  <si>
+    <t>utilize</t>
+  </si>
+  <si>
+    <t>['ju:təlaɪz]</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>['streŋθn]</t>
+  </si>
+  <si>
+    <t>vt.加强，巩固; 勉励，激励; 增加…的艺术效果; （价格）上涨; </t>
+  </si>
+  <si>
+    <t>prerequisite</t>
+  </si>
+  <si>
+    <t>priˈrɛkwɪzɪt</t>
+  </si>
+  <si>
+    <t>n.先决条件，前提，必要条件; </t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>[lɔ:ntʃ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt.发射; [计算机]开始（应用程序）; 发动; 开展（活动、计划等）; vi.投入; 着手进行; 热衷于…; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,6 +1484,18 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1188,7 +1518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1203,6 +1533,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1505,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:R188"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,6 +3532,395 @@
         <v>362</v>
       </c>
     </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>371</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>374</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>377</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>379</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>382</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>385</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>388</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>391</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>394</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>396</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>398</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>406</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>409</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>412</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>415</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>418</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>424</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>430</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>436</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>442</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>445</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>448</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>451</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>453</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>455</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>459</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>463</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>465</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>471</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" display="http://fanyi.baidu.com/"/>
@@ -3210,18 +3931,23 @@
     <hyperlink ref="B124" r:id="rId6" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B143" r:id="rId7" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B144" r:id="rId8" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B154" r:id="rId9" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B158" r:id="rId10" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B160" r:id="rId11" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B175" r:id="rId12" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B186" r:id="rId13" display="http://fanyi.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,6 +3978,11 @@
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
   <si>
     <t>expose</t>
   </si>
@@ -1438,13 +1438,421 @@
   </si>
   <si>
     <t xml:space="preserve">vt.发射; [计算机]开始（应用程序）; 发动; 开展（活动、计划等）; vi.投入; 着手进行; 热衷于…; </t>
+  </si>
+  <si>
+    <t>confluence </t>
+  </si>
+  <si>
+    <t>[ˈkɑnfluəns]</t>
+  </si>
+  <si>
+    <t>n.&lt;术&gt;（河流的）汇合处; 汇流处; &lt;正&gt;（事物的）汇合; 汇流;</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>[ˈɪntrɪst, -tərɪst, -ˌtrɛst]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.兴趣，爱好; 利害关系，利益; 利息; 趣味，感兴趣的事; vt.使产生兴趣; 使参与，使加入; 引起…的意愿; 使产生关系; </t>
+  </si>
+  <si>
+    <t>overdo</t>
+  </si>
+  <si>
+    <t>[ˌoʊvərˈdu:]</t>
+  </si>
+  <si>
+    <t>vt.做得过分; 使过于疲劳; 夸张; 耗尽; </t>
+  </si>
+  <si>
+    <t>shore</t>
+  </si>
+  <si>
+    <t>[ʃɔr, ʃor]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.岸; 滨; 国家（尤指濒海国家）; 支柱; vt.支撑; 支持; </t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>[ˌɔ:fˈʃɔ:(r)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.离开海岸的; 近海的; 海外的，国外的; adv.（指风）向海的，离岸的; </t>
+  </si>
+  <si>
+    <t>in advance</t>
+  </si>
+  <si>
+    <t>在前头; 预先，事先; 提前; 先期; </t>
+  </si>
+  <si>
+    <t>approximate</t>
+  </si>
+  <si>
+    <t>[əˈprɑksəmɪt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.约莫的，大概的; 极相似的; [植]相近但不连接的; vi.接近于; 近似于; vt.靠近; 使接近; 使结合; </t>
+  </si>
+  <si>
+    <t>minimize</t>
+  </si>
+  <si>
+    <t>vt.把…减至最低数量[程度]; 对（某事物）作最低估计，极力贬低（某事物）的价值[重要性]; 极度轻视; </t>
+  </si>
+  <si>
+    <t>[ˈmɪnəˌmaɪz]</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>[ˈfæntəsi, -zi]</t>
+  </si>
+  <si>
+    <t>n.幻想; 空想的产物; 幻想作品; 非正式的货币; </t>
+  </si>
+  <si>
+    <t>nutrition</t>
+  </si>
+  <si>
+    <t>[nuˈtrɪʃən, nju-]</t>
+  </si>
+  <si>
+    <t>n.营养，滋养; 营养品; 营养学; 食物; </t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>[ˈpaʊdɚ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.粉，粉末; 粉状物质; vt.在…搽粉; </t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>[ˈprəʊˌtiːn]</t>
+  </si>
+  <si>
+    <t>n.[化]朊，蛋白（质）; </t>
+  </si>
+  <si>
+    <t>nutrilite</t>
+  </si>
+  <si>
+    <t>['nju:trɪlaɪt]</t>
+  </si>
+  <si>
+    <t>n.营养物; </t>
+  </si>
+  <si>
+    <t>artistry</t>
+  </si>
+  <si>
+    <t>['ɑ:rtɪstrɪ]</t>
+  </si>
+  <si>
+    <t>n.艺术之性质; 技艺; </t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>[ˈprimiəm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.额外费用; 保险费; 附加费; adj.高昂的; 优质的; </t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>[ˈriˌtel]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.零售; vt.零售; 零卖; 转述; 传播; </t>
+  </si>
+  <si>
+    <t>fundamental </t>
+  </si>
+  <si>
+    <t>[ˌfʌndəˈmɛntl]</t>
+  </si>
+  <si>
+    <t>adj.基础的，基本的，根本的，重要的，原始的，主要的，十分重大的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correlate </t>
+  </si>
+  <si>
+    <t>[ˈkɔrəˌlet, ˈkɑr-]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.使互相关联; 联系; n.相关物; 相关联的人; adj.相关的; 相应特点的; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum </t>
+  </si>
+  <si>
+    <t>[ˈmɪnəməm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.最低限度; 最小量; 最低消费; [数]极小值; adj.最低的; 最小的; 最少的; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">separate </t>
+  </si>
+  <si>
+    <t>['sepəreɪt]</t>
+  </si>
+  <si>
+    <t>adj.单独的; 分开的，分离的; 不同的; 不相关的; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalize </t>
+  </si>
+  <si>
+    <t>[ˈkæpɪtl:ˌaɪz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt.用大写字母写或印刷; 使…资本化; 估计…的价值; 把…定为首都; vi.利用; 积累资本; </t>
+  </si>
+  <si>
+    <t>preposition</t>
+  </si>
+  <si>
+    <t>[ˌprɛpəˈzɪʃən]</t>
+  </si>
+  <si>
+    <t>n.介词; 前置词; </t>
+  </si>
+  <si>
+    <t>motto</t>
+  </si>
+  <si>
+    <t>[ˈmɑto]</t>
+  </si>
+  <si>
+    <t>n.座右铭; 格言; 箴言; 主题句; </t>
+  </si>
+  <si>
+    <t>composite </t>
+  </si>
+  <si>
+    <t>[kəmˈpɑzɪt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.混合成的，综合成的; [建]综合式的; [数]可分解的; [植]菊科的; n.合成物，混合物，复合材料; [植]菊科植物; </t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>['pɜ:tʃəs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.购买; 采购; 换得; 依靠机械力移动; n.购买; 购买行为; 购置物; 紧握; </t>
+  </si>
+  <si>
+    <t>inner mongolia</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>英语月份的缩写</t>
+  </si>
+  <si>
+    <t>美式英語是要以 月/日/年</t>
+  </si>
+  <si>
+    <t>英式英語是要以 日/月/年</t>
+  </si>
+  <si>
+    <t>中國語文是以年/月/日</t>
+  </si>
+  <si>
+    <t>January (Jan.) 一月；</t>
+  </si>
+  <si>
+    <t>February (Feb.) 二月；</t>
+  </si>
+  <si>
+    <t>March (Mar.) 三月；</t>
+  </si>
+  <si>
+    <t>April (Apr.) 四月；</t>
+  </si>
+  <si>
+    <t>May (may.)五月；</t>
+  </si>
+  <si>
+    <t>June(Jun.)六月；</t>
+  </si>
+  <si>
+    <t>July(Jul.)七月；</t>
+  </si>
+  <si>
+    <t>August(Aug.)八月；</t>
+  </si>
+  <si>
+    <t>September(Sept.)九月；</t>
+  </si>
+  <si>
+    <t>October(Oct.)十月；</t>
+  </si>
+  <si>
+    <t>November(Nov.)十一月；</t>
+  </si>
+  <si>
+    <t>December(Dec.)十二月 .</t>
+  </si>
+  <si>
+    <t>後面要打點(.)啊</t>
+  </si>
+  <si>
+    <t>[ˈdʒænjuˌɛri]</t>
+  </si>
+  <si>
+    <t>[ˈfɛbruˌɛri, ˈfɛbju-]</t>
+  </si>
+  <si>
+    <t>[mɑ:rtʃ]</t>
+  </si>
+  <si>
+    <t>[ˈeprəl]</t>
+  </si>
+  <si>
+    <t>[me]</t>
+  </si>
+  <si>
+    <t>[dʒu:n]</t>
+  </si>
+  <si>
+    <t>[dʒʊˈlaɪ]</t>
+  </si>
+  <si>
+    <t>[ɔˈɡʌst]</t>
+  </si>
+  <si>
+    <t>[sɛpˈtɛmbɚ]</t>
+  </si>
+  <si>
+    <t>[ɑkˈtobɚ]</t>
+  </si>
+  <si>
+    <t>[noˈvɛmbɚ]</t>
+  </si>
+  <si>
+    <t>[dɪˈsɛmbɚ]</t>
+  </si>
+  <si>
+    <t>還有這些詞不可以用在句子的未尾,且月份的縮寫只有跟日一起用才能縮寫,單獨在句中是不能縮寫</t>
+  </si>
+  <si>
+    <t>常用的星期英文縮寫:</t>
+  </si>
+  <si>
+    <t>星期一： Mon.=Monday</t>
+  </si>
+  <si>
+    <t>星期二： Tues.=Tuesday</t>
+  </si>
+  <si>
+    <t>星期三： Wed.=Wednesday</t>
+  </si>
+  <si>
+    <t>星期五： Fri.=Friday</t>
+  </si>
+  <si>
+    <t>星期六： Sat.=Saturday</t>
+  </si>
+  <si>
+    <t>星期天： Sun.=Sunday</t>
+  </si>
+  <si>
+    <t>[ˈmʌndeɪ]</t>
+  </si>
+  <si>
+    <t>[ˈtuzdi, -ˌde, ˈtjuz-]</t>
+  </si>
+  <si>
+    <t>[ˈwɛnzdi, -ˌde]</t>
+  </si>
+  <si>
+    <t>星期四： Thur.=Thursday</t>
+  </si>
+  <si>
+    <t>[ˈθɚzdi, -ˌde]</t>
+  </si>
+  <si>
+    <t>[ˈfraɪdi, -ˌde]</t>
+  </si>
+  <si>
+    <t>[ˈsætədi, -ˌde]</t>
+  </si>
+  <si>
+    <t>[ˈsʌndi, -ˌde]</t>
+  </si>
+  <si>
+    <t>英語日期中的大寫、縮寫</t>
+  </si>
+  <si>
+    <t>1st 2nd 3rd 4th 5th 6th 7th 8th 9th 10th ；</t>
+  </si>
+  <si>
+    <t>11th 12th 13th 14th 15th 16th 17th 18th 19th 20th ；21st 22nd 23rd 24th 25th 26th 27th 28th 29th 30th 31st</t>
+  </si>
+  <si>
+    <t>注意：正规的英语中六月，七月，九月的缩写是4个字母，其他月份3个字母。挂历上见到的Jun，Jul,Sep是错误的。</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>[ˈhʌndrɪd]</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>[ˈθaʊzənd]</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>[ˈbɪljən]</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>[ˈmɪljən]</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>[ˈpɚpəl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.紫色的; 帝王的; 词藻华美的; n.紫色; 紫（红）衣，紫袍; 帝位，皇权; 皇族; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,6 +1904,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE7432F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1518,7 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1535,6 +1960,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1837,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R188"/>
+  <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3921,6 +4352,286 @@
         <v>473</v>
       </c>
     </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>477</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>480</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>483</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>486</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>489</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>494</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>497</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>509</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>503</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>506</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>512</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>518</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>524</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>530</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>533</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>536</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>539</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>545</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>548</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" display="http://fanyi.baidu.com/"/>
@@ -3936,9 +4647,15 @@
     <hyperlink ref="B160" r:id="rId11" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B175" r:id="rId12" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B186" r:id="rId13" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B193" r:id="rId14" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B194" r:id="rId15" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B200" r:id="rId16" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B201" r:id="rId17" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B209" r:id="rId18" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B213" r:id="rId19" display="http://fanyi.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -3947,7 +4664,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,12 +4714,271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>599</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>601</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>605</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>603</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>607</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="732">
   <si>
     <t>expose</t>
   </si>
@@ -183,12 +183,6 @@
     <t>坚持的 一致的</t>
   </si>
   <si>
-    <t>identical</t>
-  </si>
-  <si>
-    <t>完全相同的</t>
-  </si>
-  <si>
     <t>widget</t>
   </si>
   <si>
@@ -1846,13 +1840,385 @@
   </si>
   <si>
     <t xml:space="preserve">adj.紫色的; 帝王的; 词藻华美的; n.紫色; 紫（红）衣，紫袍; 帝位，皇权; 皇族; </t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>[ˈɔdɪt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt.审计，查账; 旁听; n.审计，查账; </t>
+  </si>
+  <si>
+    <t>[mɑ:ŋ'ɡoʊlɪr]</t>
+  </si>
+  <si>
+    <t>up-to-date</t>
+  </si>
+  <si>
+    <t>adj.现代的，最新的; 最近的; 新式的; </t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>[ˈædvɚb]</t>
+  </si>
+  <si>
+    <t>n.&lt;语&gt;副词; </t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>[naʊn]</t>
+  </si>
+  <si>
+    <t>n.名词; 名词性单词; 名词词性; </t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>[ˈædʒɪktɪv]</t>
+  </si>
+  <si>
+    <t>n.形容词; </t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>[vɚb]</t>
+  </si>
+  <si>
+    <t>n.动词; 动词结构; </t>
+  </si>
+  <si>
+    <t>mental</t>
+  </si>
+  <si>
+    <t>[ˈmɛntl]</t>
+  </si>
+  <si>
+    <t>adj.内心的，精神的，思想的，心理的; 智慧的，智[脑]力的</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>[ɪnˈvɛstɚ]</t>
+  </si>
+  <si>
+    <t>n.投资者; 出资者; 包围者，围攻者; </t>
+  </si>
+  <si>
+    <t>observer </t>
+  </si>
+  <si>
+    <t>[əbˈzɚvɚ]</t>
+  </si>
+  <si>
+    <t>n.遵守者，观察者; 观察团; 观察员; </t>
+  </si>
+  <si>
+    <t>inventor</t>
+  </si>
+  <si>
+    <t>[ɪnˈventə(r)]</t>
+  </si>
+  <si>
+    <t>n.发明家; 创造者; 发明者; </t>
+  </si>
+  <si>
+    <t>[ˈdɛkˌed, dɛˈked]</t>
+  </si>
+  <si>
+    <t>n.十年，十年间; 十个一组; 十年期; </t>
+  </si>
+  <si>
+    <t>ointment</t>
+  </si>
+  <si>
+    <t>[ˈɔɪntmənt]</t>
+  </si>
+  <si>
+    <t>n.软膏，药膏，油膏; </t>
+  </si>
+  <si>
+    <t>investigator</t>
+  </si>
+  <si>
+    <t>[ɪnˈvɛstɪˌɡetɚ]</t>
+  </si>
+  <si>
+    <t>n.调查者; 研究者; 侦查员;</t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>[ɪnˈvɛstɪˌɡet]</t>
+  </si>
+  <si>
+    <t>vt.调查; 审查; 研究; </t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>[ɪnˈvɛst]</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.投资; 花费; </t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>[əbˈzɚv]</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.观察; 研究; </t>
+  </si>
+  <si>
+    <t>embed</t>
+  </si>
+  <si>
+    <t>[ɛmˈbɛd]</t>
+  </si>
+  <si>
+    <t>vt.&amp;vi.把…嵌入; 栽种; 深留（记忆中）; </t>
+  </si>
+  <si>
+    <t>embed sth in sth</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>n.允许; 批准，正式认可，认可; </t>
+  </si>
+  <si>
+    <t>[pɚˈmɪʃən]</t>
+  </si>
+  <si>
+    <t>[ˈprɪvəlɪdʒ, ˈprɪvlɪdʒ]</t>
+  </si>
+  <si>
+    <t>privilege</t>
+  </si>
+  <si>
+    <t>n.特权; （因财富和社会地位而仅有部分人享有的）权益; 免责特权; 特殊荣幸; </t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>[dɪˈnaɪ]</t>
+  </si>
+  <si>
+    <t>vt.拒绝; 拒绝承认; 拒绝…占有; 否认知情; </t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>[ɡrænt]</t>
+  </si>
+  <si>
+    <t>vt.承认; 同意; 准许; 授予; </t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t>[ˈɔ:θəraɪzeɪʃən]</t>
+  </si>
+  <si>
+    <t>n.授权，批准; 批准（或授权）的证书; </t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>[ˈbʌdʒɪt]</t>
+  </si>
+  <si>
+    <t>n.预算; 预算案; 预算拨款; 一束; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">equinox </t>
+  </si>
+  <si>
+    <t>['i:kwɪnɑ:ks]</t>
+  </si>
+  <si>
+    <t>n.昼夜平分点，春分或秋分; </t>
+  </si>
+  <si>
+    <t>autumnal</t>
+  </si>
+  <si>
+    <t>[ɔːˈtʌmnəl]</t>
+  </si>
+  <si>
+    <t>adj.秋的，秋天的，已过中年的; </t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>[ˈɔtəm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.秋; 秋天; 成熟期; 渐衰期; adj.秋天的; 秋季的; </t>
+  </si>
+  <si>
+    <t>equator</t>
+  </si>
+  <si>
+    <t>[ɪˈkwetɚ]</t>
+  </si>
+  <si>
+    <t>n.赤道; （平分球形物体的面的）圆; （任何）大圆; </t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>[ˈridʒən]</t>
+  </si>
+  <si>
+    <t>n.地区，地域，地带; 行政区，管辖区; （大气，海水等的）层，界，境; （学问等的）范围，领域; </t>
+  </si>
+  <si>
+    <t>scenarios</t>
+  </si>
+  <si>
+    <t>[sɪ'nɑ:ri:oʊz]</t>
+  </si>
+  <si>
+    <t>n.[意]情节; 剧本; 事态; 脚本; </t>
+  </si>
+  <si>
+    <t>terminology </t>
+  </si>
+  <si>
+    <t>ˌtə:məˈnɑlədʒi]</t>
+  </si>
+  <si>
+    <t>n.专门名词; 术语，术语学; 用辞; </t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>[ˈɑpʃənəl]</t>
+  </si>
+  <si>
+    <t>adj.可选择的; 随意的，任意的; 非强制的; 选修科目;</t>
+  </si>
+  <si>
+    <t>conjunction </t>
+  </si>
+  <si>
+    <t>[kənˈdʒʌŋkʃən]</t>
+  </si>
+  <si>
+    <t>n.连词; 连接; 联合，结合物; （恒星、行星等的）合; </t>
+  </si>
+  <si>
+    <t>identical </t>
+  </si>
+  <si>
+    <t>[aɪˈdɛntɪkəl]</t>
+  </si>
+  <si>
+    <t>adj.同一的; 完全同样的，相同的; 恒等的; 同卵的; </t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>[ˈʌpˌɡred]</t>
+  </si>
+  <si>
+    <t>vt.提升; 使（机器、计算机系统等）升级; 提高（设施、服务等的）档次; 提高（飞机乘客、旅馆住客等）的待遇; </t>
+  </si>
+  <si>
+    <t>fulfill</t>
+  </si>
+  <si>
+    <t>[fʊlˈfɪl]</t>
+  </si>
+  <si>
+    <t>vt.履行（诺言等）; 执行（命令等）; 达到（目的）; 使结束; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">distinguish </t>
+  </si>
+  <si>
+    <t>[dɪˈstɪŋɡwɪʃ]</t>
+  </si>
+  <si>
+    <t>vt.区分，辨别，分清; 辨别出，识别; 引人注目，有别于; 使杰出，使著名; </t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>[dɪˈraɪv]</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.得到，导出; 源于，来自; （从…中）提取; </t>
+  </si>
+  <si>
+    <t>optimize</t>
+  </si>
+  <si>
+    <t>[ˈɑptəˌmaɪz]</t>
+  </si>
+  <si>
+    <t>vt.使最优化，使尽可能有效; </t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>[səbˈmɪʃən]</t>
+  </si>
+  <si>
+    <t>n.投降; 屈服，服从; 谦恭，柔顺; 提交，呈递; </t>
+  </si>
+  <si>
+    <t>appropriate</t>
+  </si>
+  <si>
+    <t>[əˈproʊpriət]</t>
+  </si>
+  <si>
+    <t>adj.适当的; 恰当的; 合适的; </t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>[kæmˈpen]</t>
+  </si>
+  <si>
+    <t>n.运动; 竞选运动; 战役; 季节性竞赛; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1921,6 +2287,12 @@
       <color rgb="FF000000"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1943,7 +2315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1966,6 +2338,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2268,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2304,10 +2677,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,13 +2702,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2343,13 +2716,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,10 +2733,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2374,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2425,7 +2798,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2444,7 +2817,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2452,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2833,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2841,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,15 +2953,15 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2620,50 +2993,66 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8.27</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>8.27</v>
-      </c>
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2696,7 +3085,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2715,12 +3104,14 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2739,14 +3130,14 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2765,11 +3156,9 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
         <v>92</v>
@@ -2793,10 +3182,12 @@
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2815,14 +3206,14 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2841,11 +3232,9 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>100</v>
@@ -2893,10 +3282,12 @@
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2915,14 +3306,14 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2941,14 +3332,14 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2967,11 +3358,9 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
         <v>121</v>
@@ -2995,10 +3384,12 @@
       <c r="A57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3017,14 +3408,14 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -3043,14 +3434,14 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -3069,14 +3460,14 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -3094,16 +3485,10 @@
       <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3120,35 +3505,23 @@
       <c r="R61" s="2"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
+      <c r="A62">
+        <v>8.2799999999999994</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>8.2799999999999994</v>
+      <c r="A63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3159,38 +3532,38 @@
       <c r="A65" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="D65" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>155</v>
@@ -3206,36 +3579,36 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>160</v>
+      <c r="D75" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3246,118 +3619,121 @@
       <c r="A78" t="s">
         <v>168</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="B83" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G84" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>193</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>194</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>198</v>
-      </c>
-      <c r="B90" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>200</v>
@@ -3365,119 +3741,116 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>204</v>
-      </c>
-      <c r="B92" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>231</v>
-      </c>
-      <c r="B101" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -3488,7 +3861,7 @@
       <c r="A102" t="s">
         <v>234</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3496,84 +3869,84 @@
       <c r="A103" t="s">
         <v>236</v>
       </c>
-      <c r="D103" t="s">
+      <c r="B103" s="1" t="s">
         <v>237</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
         <v>241</v>
       </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="B105" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
         <v>244</v>
       </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>245</v>
+      </c>
       <c r="B106" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
         <v>247</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>248</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>249</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G110" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>253</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>255</v>
+      <c r="D113" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>257</v>
-      </c>
-      <c r="B114" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -3584,63 +3957,66 @@
       <c r="A115" t="s">
         <v>260</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D115" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3648,113 +4024,110 @@
         <v>278</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>300</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>283</v>
-      </c>
-      <c r="B124" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D124" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
         <v>289</v>
       </c>
-      <c r="B126" s="1" t="s">
+    </row>
+    <row r="126" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>290</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>292</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="D127" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
         <v>303</v>
       </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="B130" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B131" s="1" t="s">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -3762,62 +4135,62 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+      <c r="A132" t="s">
         <v>309</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="D132" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>323</v>
-      </c>
-      <c r="B137" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -3836,70 +4209,70 @@
       <c r="A139" t="s">
         <v>328</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="D139" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>336</v>
-      </c>
-      <c r="B142" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="B142" s="3" t="s">
+        <v>338</v>
+      </c>
       <c r="D142" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>342</v>
-      </c>
-      <c r="B144" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="D144" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>345</v>
-      </c>
-      <c r="B145" s="1" t="s">
         <v>346</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -3910,15 +4283,15 @@
       <c r="A146" t="s">
         <v>348</v>
       </c>
+      <c r="B146" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="D146" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>350</v>
-      </c>
-      <c r="B147" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -3929,26 +4302,26 @@
       <c r="A148" t="s">
         <v>353</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="D148" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>358</v>
-      </c>
-      <c r="B150" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -3957,39 +4330,39 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>361</v>
+        <v>366</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>371</v>
-      </c>
-      <c r="B153" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="B153" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="D153" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>374</v>
-      </c>
-      <c r="B154" s="3" t="s">
         <v>375</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -4000,16 +4373,19 @@
       <c r="A155" t="s">
         <v>377</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="D155" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>381</v>
@@ -4017,42 +4393,39 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>382</v>
-      </c>
-      <c r="B157" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>384</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>385</v>
-      </c>
-      <c r="B158" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="B158" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="D158" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>388</v>
-      </c>
-      <c r="B159" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="B159" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="D159" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>391</v>
-      </c>
-      <c r="B160" s="3" t="s">
         <v>392</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -4079,200 +4452,203 @@
       <c r="A163" t="s">
         <v>398</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="D163" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
         <v>418</v>
       </c>
+    </row>
+    <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="B170" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
         <v>421</v>
       </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>422</v>
+      </c>
       <c r="B171" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
         <v>424</v>
       </c>
+    </row>
+    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="B172" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D172" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
+      <c r="D172" s="9" t="s">
         <v>427</v>
       </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>428</v>
+      </c>
       <c r="B173" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D173" s="9" t="s">
         <v>429</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>430</v>
-      </c>
-      <c r="B174" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="B174" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="D174" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>433</v>
-      </c>
-      <c r="B175" s="3" t="s">
         <v>434</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="D175" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
         <v>436</v>
       </c>
+    </row>
+    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="B176" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
         <v>439</v>
       </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>440</v>
+      </c>
       <c r="B177" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>445</v>
-      </c>
-      <c r="B179" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>449</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>451</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>450</v>
+      <c r="B181" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4280,382 +4656,832 @@
         <v>453</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>463</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="3" t="s">
         <v>464</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>465</v>
-      </c>
-      <c r="B186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="B186" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="D186" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>468</v>
+      <c r="A187" t="s">
+        <v>469</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
         <v>471</v>
       </c>
-      <c r="B188" s="1" t="s">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="D190" s="2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
-        <v>474</v>
+      <c r="A191" t="s">
+        <v>475</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>477</v>
-      </c>
-      <c r="B192" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="B192" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="D192" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>483</v>
-      </c>
-      <c r="B194" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="B194" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="D194" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>486</v>
-      </c>
-      <c r="B195" s="1" t="s">
         <v>487</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
         <v>489</v>
       </c>
+      <c r="B196" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="D196" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>492</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="B198" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>494</v>
-      </c>
-      <c r="B199" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>496</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>509</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="D201" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
         <v>500</v>
       </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>501</v>
+      </c>
       <c r="B202" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
         <v>512</v>
       </c>
+    </row>
+    <row r="205" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="B205" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
         <v>515</v>
       </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>516</v>
+      </c>
       <c r="B206" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>518</v>
+      <c r="A207" s="11" t="s">
+        <v>519</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="A208" t="s">
         <v>522</v>
       </c>
+      <c r="B208" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="D208" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>524</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>533</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>538</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>536</v>
+      <c r="A212" s="11" t="s">
+        <v>540</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>539</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
-        <v>542</v>
+      <c r="A214" t="s">
+        <v>546</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>548</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>549</v>
+        <v>612</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>617</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>620</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>623</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>614</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>534</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>626</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>630</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>647</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>644</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>636</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>641</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>656</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="H236" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>660</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>664</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>666</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>669</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>675</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>678</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>681</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>684</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>687</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>690</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>693</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>699</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>708</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>711</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>714</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>717</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>720</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>726</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B54" r:id="rId1" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B84" r:id="rId2" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B85" r:id="rId3" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B91" r:id="rId4" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B92" r:id="rId5" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B124" r:id="rId6" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B143" r:id="rId7" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B144" r:id="rId8" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B154" r:id="rId9" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B158" r:id="rId10" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B160" r:id="rId11" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B175" r:id="rId12" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B186" r:id="rId13" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B193" r:id="rId14" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B194" r:id="rId15" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B200" r:id="rId16" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B201" r:id="rId17" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B209" r:id="rId18" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B213" r:id="rId19" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B53" r:id="rId1" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B83" r:id="rId2" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B84" r:id="rId3" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B90" r:id="rId4" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B91" r:id="rId5" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B123" r:id="rId6" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B142" r:id="rId7" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B143" r:id="rId8" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B153" r:id="rId9" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B157" r:id="rId10" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B159" r:id="rId11" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B174" r:id="rId12" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B185" r:id="rId13" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B192" r:id="rId14" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B193" r:id="rId15" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B199" r:id="rId16" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B200" r:id="rId17" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B208" r:id="rId18" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B211" r:id="rId19" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B236" r:id="rId20" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B237" r:id="rId21" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B245" r:id="rId22" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B246" r:id="rId23" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B251" r:id="rId24" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B256" r:id="rId25" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B257" r:id="rId26" display="http://fanyi.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -4671,22 +5497,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4694,12 +5520,12 @@
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4716,7 +5542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -4728,254 +5554,254 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>605</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="777">
   <si>
     <t>expose</t>
   </si>
@@ -2212,13 +2213,879 @@
   </si>
   <si>
     <t>n.运动; 竞选运动; 战役; 季节性竞赛; </t>
+  </si>
+  <si>
+    <t>Homework Reminder - Week 6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just a friendly reminder that we will be having our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:1 midterm exam next Monday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If we haven’t turned in any of the homework, please do that as soon as possible.</t>
+    </r>
+  </si>
+  <si>
+    <t>Below are the areas that will be covered in our midterm:</t>
+  </si>
+  <si>
+    <r>
+      <t>Pronunciation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pronunciation drills, pronunciation in general</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vocabulary:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Three idioms will be chosen by me, where you will have to give a definition and example for each. Also, please be sure to incorporate vocabulary into our discussion throughout the exam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Grammar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Anything grammar related such as countable/uncountable, he/she, verb tenses, conjugations, etc. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Flow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Use of transitions and intonation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Presentation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Usage of eye contact, body language, and gestures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Listening:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Questions on movies from listening training. General questions on requests and the basics of emailing</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework Reminder - Week 4</t>
+  </si>
+  <si>
+    <t>Just a friendly reminder of our homework and plan for next week’s training:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Homework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(10 points) – Email me a work related article utilizing a minimum of 5 vocabulary/idioms from today’s lesson. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Also, Week 3’s (last Monday) homework is also due on Friday.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Due by noon (12pm) this Friday. </t>
+  </si>
+  <si>
+    <r>
+      <t>Request Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Email a request for help, info, code review, etc. to your partner and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cc the rest of the training group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (including myself) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by end of day this Friday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request Groups :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Benjamin &amp; Heidi – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will send a request email to each other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Benny &amp; Ralph </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">– </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will send a request email to each other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bruce --&gt; Herbert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Bruce</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will send his request email to Herbert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Herbert --&gt; Natalie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– Herbert will send his request email to Natalie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Natalie --&gt; Bruce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Natalie</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will send her request email to Bruce</t>
+    </r>
+  </si>
+  <si>
+    <t>Just a re-cap on what we went over in training:</t>
+  </si>
+  <si>
+    <t>Request Email Tips</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Be Polite – “Could you please….”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explain the request clearly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Always end the question/request with a “?”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We want to give some background information on the request, therefore the reader understands why we are asking them this question</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">“Thank you in advance for your reply”, “Thank you in advance for your prompt reply”, etc. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Give the deadline if needed</t>
+    </r>
+  </si>
+  <si>
+    <t>Requesting for Help/Feedback Phrases</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I am wondering if you could do me a favor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Could you take a look at my…. and give me some suggestions?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Would you mind…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I would like to….</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I would appreciate it if you could…</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework Reminder - Week 3</t>
+  </si>
+  <si>
+    <t>Just a friendly reminder of our homework for our next training:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Homework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10 points) – Work related article utilizing a minimum of 5 vocabulary words/idioms from this week’s lesson</t>
+    </r>
+  </si>
+  <si>
+    <t>Due by noon Friday, October 10</t>
+  </si>
+  <si>
+    <t>Reminder of our Emailing Basics</t>
+  </si>
+  <si>
+    <r>
+      <t>Subject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – brief, key words, capitalize the first letter of each word, less than 7 words, never use ending punctuation (.,?...)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Greeting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Hi Mary,     Hello James,      Hello Heather &amp; Bob,       Hello Team,        Hi All,       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ß</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>always remember the comma</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – clear, to-the-point, polite, blank space after each paragraph, double-check</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Closing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Best Regards,       Best,       Regards,      Thanks,       Thank you,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Name, title, company motto, phone number, company website</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2293,6 +3160,71 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2315,7 +3247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2339,6 +3271,42 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2643,7 +3611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
@@ -5807,4 +6775,281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -6781,8 +6781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="872">
   <si>
     <t>expose</t>
   </si>
@@ -488,9 +488,6 @@
   </si>
   <si>
     <t>perspective</t>
-  </si>
-  <si>
-    <t>n 观点</t>
   </si>
   <si>
     <t>vt促进、提升、推销、发扬</t>
@@ -3079,6 +3076,294 @@
       </rPr>
       <t xml:space="preserve"> – Name, title, company motto, phone number, company website</t>
     </r>
+  </si>
+  <si>
+    <t>When people speak of their work or other interesting things, they always have plenty to talk about. But for those what they don’t care things, they usually keep silence.</t>
+  </si>
+  <si>
+    <t>anticipation</t>
+  </si>
+  <si>
+    <t>[ænˌtɪsəˈpeʃən]</t>
+  </si>
+  <si>
+    <t>n.期待，希望; 预期，预测，预感; &lt;律&gt;（信托财产收益的）预支; </t>
+  </si>
+  <si>
+    <t>probation</t>
+  </si>
+  <si>
+    <t>[proˈbeʃən]</t>
+  </si>
+  <si>
+    <t>n.试用（期）; 缓刑（期）; 查看，查验; 试读（期）; </t>
+  </si>
+  <si>
+    <t>snooze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi.小睡，打盹，打瞌睡; n.小睡; </t>
+  </si>
+  <si>
+    <t>transitive</t>
+  </si>
+  <si>
+    <t>[ˈtrænsɪtɪv, -zɪ-]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.（指动词）及物的; 过渡的; 转变的; &lt;数&gt;&lt;逻&gt;可递的; n.&lt;语&gt;及物动词; </t>
+  </si>
+  <si>
+    <t>intransitive</t>
+  </si>
+  <si>
+    <t>[ɪnˈtrænsɪtɪv, -zɪ-]</t>
+  </si>
+  <si>
+    <t>adj.（动词）不及物的; </t>
+  </si>
+  <si>
+    <t>in favour of </t>
+  </si>
+  <si>
+    <t>为…而征战，参加支持…的活动; </t>
+  </si>
+  <si>
+    <t>[ɪn ˈfevɚ ʌv]</t>
+  </si>
+  <si>
+    <t>[snuz]</t>
+  </si>
+  <si>
+    <t>terminology</t>
+  </si>
+  <si>
+    <t>[ˌtə:məˈnɑlədʒi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.透镜，望远镜; 观点，看法; 远景，景色; 洞察力; adj.（按照）透视画法的; 透视的; </t>
+  </si>
+  <si>
+    <t>evolution</t>
+  </si>
+  <si>
+    <t>[ˌɛvəˈluʃən, ˌivə-]</t>
+  </si>
+  <si>
+    <t>n.演变; 进化; 发展; </t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>[kəˌlæbəˈreɪʃn]</t>
+  </si>
+  <si>
+    <t>n.合作，协作; 通敌，勾结; </t>
+  </si>
+  <si>
+    <t>concurrently</t>
+  </si>
+  <si>
+    <t>[kən'kɜ:əntlɪ]</t>
+  </si>
+  <si>
+    <t>adv.同时地; </t>
+  </si>
+  <si>
+    <t>customization</t>
+  </si>
+  <si>
+    <t>['kʌstəmaɪzeɪʃən]</t>
+  </si>
+  <si>
+    <t>n.用户化，专用化，定制; </t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>adj.总数的，总计的; 聚合的; [地]聚成岩的; </t>
+  </si>
+  <si>
+    <t>[ˈæɡrɪɡɪt]</t>
+  </si>
+  <si>
+    <t>narrative</t>
+  </si>
+  <si>
+    <t>[ˈnærətɪv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.记叙文; 故事; 叙述，记事; 叙述手法; adj.叙述的，叙事体的; 善于叙述的; </t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>[ˈdʒɚni]</t>
+  </si>
+  <si>
+    <t>n.旅行，旅程行期; 历程，过程; </t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.短暂的; （衣着）短的; 简洁的; 简明的; n.概要; 短文; 简短声明; （争议一方的情况或论点）要点摘录; </t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>ˈpraɪɚ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.优先的; 占先的; 在…之前; adv.在前; 居先; </t>
+  </si>
+  <si>
+    <t>iterative</t>
+  </si>
+  <si>
+    <t>['ɪtəˌreɪtɪv]</t>
+  </si>
+  <si>
+    <t>adj.重复的，反复的，迭代的; </t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>[ˈædʒl]</t>
+  </si>
+  <si>
+    <t>adj.灵巧的; 轻快的; 灵活的; 机敏的; </t>
+  </si>
+  <si>
+    <t>tentative</t>
+  </si>
+  <si>
+    <t>[ˈtɛntətɪv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.试探性的; 试验的; 尝试性的; 不确定的; n.假设; 实验; 尝试; </t>
+  </si>
+  <si>
+    <t>retrospective</t>
+  </si>
+  <si>
+    <t>[ˌrɛtrəˈspɛktɪv]</t>
+  </si>
+  <si>
+    <t>adj.回顾的; 怀旧的; [法]有追溯力的; 可追溯的; </t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>v.使结合; 使化合; 兼有; 用联合收割机收割; </t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>[səˈprɛs]</t>
+  </si>
+  <si>
+    <t>vt.镇压，压制; 止住，忍住; 禁止发表; 阻止…的生长（或发展）; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">precise </t>
+  </si>
+  <si>
+    <t>[prɪˈsaɪs]</t>
+  </si>
+  <si>
+    <t>adj.清晰的; 精确的; 正规的; 精密; </t>
+  </si>
+  <si>
+    <t>thoroughly</t>
+  </si>
+  <si>
+    <t>[ˈθə:olɪ]</t>
+  </si>
+  <si>
+    <t>adv.彻底地; 认真仔细地; 完全地; 非常; </t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>[ˈdefɪnətli]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv.明确地; 确切地; 一定地; 肯定地; int.（表强烈的肯定）当然; </t>
+  </si>
+  <si>
+    <t>interjection</t>
+  </si>
+  <si>
+    <t>[ˌɪntɚˈdʒɛkʃən]</t>
+  </si>
+  <si>
+    <t>n.叹词，感叹词; </t>
+  </si>
+  <si>
+    <t>head-scratcher</t>
+  </si>
+  <si>
+    <t>n.令人头痛的问题</t>
+  </si>
+  <si>
+    <t>scratcher</t>
+  </si>
+  <si>
+    <t>['skrætʃə]</t>
+  </si>
+  <si>
+    <t>n.抓扒者，抓扒工具; </t>
+  </si>
+  <si>
+    <t>in the driver's seat</t>
+  </si>
+  <si>
+    <t>处于控制地位，掌握控制权;</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>[prəˈsidʒɚ]</t>
+  </si>
+  <si>
+    <t>n.程序，手续; 工序，过程，步骤; 诉讼程序，（议会的）议事程序; 〈罕〉进行; </t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>[ˈsikwəns, -ˌkwɛns]</t>
+  </si>
+  <si>
+    <t>n.[数]数列，序列; 顺序; 连续; 片断插曲; </t>
+  </si>
+  <si>
+    <t>run through</t>
+  </si>
+  <si>
+    <t>通过运行</t>
+  </si>
+  <si>
+    <t>http://www.cnielts.com/voa/96105.html</t>
+  </si>
+  <si>
+    <t>rehearse</t>
+  </si>
+  <si>
+    <t>[rɪˈhə:s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt.&amp; vi.排练，排演; 公开练习; vt.详述; 在排演中指挥; 经训练使熟练掌握; 复述，背诵; </t>
   </si>
 </sst>
 </file>
@@ -3123,12 +3408,6 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -3225,6 +3504,12 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3265,22 +3550,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3289,13 +3573,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3304,9 +3588,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3609,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R259"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,7 +4535,7 @@
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C53" s="2"/>
@@ -4542,1881 +4827,2233 @@
         <v>156</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>157</v>
+        <v>797</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="G84" t="s">
         <v>188</v>
-      </c>
-      <c r="G84" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" t="s">
         <v>234</v>
-      </c>
-      <c r="D102" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="G109" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>275</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>277</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>286</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>291</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>294</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>300</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>325</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>327</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>330</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>336</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>345</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>347</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>350</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>371</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="D153" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>374</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>376</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>379</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>382</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="D157" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>385</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>388</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="D159" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>391</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>393</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>395</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>397</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>406</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>409</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>412</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>415</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D169" s="2" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="B170" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>421</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D171" s="2" t="s">
+    </row>
+    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
+      <c r="B172" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="D172" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>427</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>430</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="D174" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D175" s="2" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+      <c r="B176" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>439</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>442</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>445</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>449</v>
-      </c>
-      <c r="D180" s="9" t="s">
         <v>448</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>450</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>452</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>456</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>460</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="D184" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>462</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="D185" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>468</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D187" s="2" t="s">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+      <c r="B190" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>474</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>477</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="D192" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>480</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="D193" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>483</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>486</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D195" s="2" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
+      <c r="B196" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>524</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>491</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>494</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="D199" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>506</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="D200" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>497</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>500</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>503</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>509</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D204" s="2" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="B205" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>515</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D206" s="2" t="s">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="11" t="s">
+      <c r="B207" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>521</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="D208" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>527</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>530</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>536</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="D211" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D211" s="2" t="s">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="11" t="s">
+      <c r="B212" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="D212" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>542</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>545</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>607</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="D215" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>611</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>616</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="D218" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>619</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>622</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="D220" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>613</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="D221" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>533</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="D222" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="D223" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>704</v>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>850</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B225" s="1"/>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>625</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="D226" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D225" s="2" t="s">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="13" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="B226" s="1" t="s">
+      <c r="B227" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="14" t="s">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="D228" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>630</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>646</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>643</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="D231" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="D233" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>636</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>635</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>640</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="D235" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>656</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="H236" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
+      </c>
+      <c r="H237" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>664</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>665</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>668</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="D241" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>684</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>685</v>
+        <v>680</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>690</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>689</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>692</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="D249" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D248" s="2" t="s">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="10" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="11" t="s">
+      <c r="B250" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="D250" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D249" s="2" t="s">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B251" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="D251" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="11" t="s">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="D252" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>708</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>716</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>719</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="D257" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>722</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>725</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="D259" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D258" s="2" t="s">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
+      <c r="B260" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="D260" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>731</v>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>777</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>783</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>785</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>788</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>795</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>798</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>801</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>804</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>807</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>810</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>816</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>819</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>821</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>824</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>827</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>830</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>833</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>836</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>838</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>844</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>847</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>853</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>855</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>858</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>860</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>863</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>866</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>869</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -6440,13 +7077,13 @@
     <hyperlink ref="B200" r:id="rId17" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B208" r:id="rId18" display="http://fanyi.baidu.com/"/>
     <hyperlink ref="B211" r:id="rId19" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B236" r:id="rId20" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B237" r:id="rId21" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B245" r:id="rId22" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B246" r:id="rId23" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B251" r:id="rId24" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B256" r:id="rId25" display="http://fanyi.baidu.com/"/>
-    <hyperlink ref="B257" r:id="rId26" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B237" r:id="rId20" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B238" r:id="rId21" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B246" r:id="rId22" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B247" r:id="rId23" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B252" r:id="rId24" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B257" r:id="rId25" display="http://fanyi.baidu.com/"/>
+    <hyperlink ref="B258" r:id="rId26" display="http://fanyi.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
@@ -6455,32 +7092,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6488,21 +7125,27 @@
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://leap.talentlms.com/"/>
     <hyperlink ref="A3" r:id="rId2" display="mailto:bli@Objectivasoftware.com"/>
+    <hyperlink ref="A15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6510,7 +7153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -6521,255 +7164,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>596</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>598</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>602</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>600</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>604</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -6779,272 +7422,277 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>765</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>776</v>
       </c>
     </row>
